--- a/public/plugin/xls/Surat Tidak memiliki Buku Nikah.xlsx
+++ b/public/plugin/xls/Surat Tidak memiliki Buku Nikah.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mazia\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV ABS\Aplikasi Pelayanan Umum Cmg I\Format Surat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1749F068-1CFF-4290-83CD-AF7DC0E36C4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3890541-0CA9-41E5-8296-67E89AC2D9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>PEMERINTAH KABUPATEN  BOGOR</t>
   </si>
@@ -57,21 +57,12 @@
     <t xml:space="preserve">No :  </t>
   </si>
   <si>
-    <t>DESA CIARUTEUN ILIR</t>
-  </si>
-  <si>
-    <t>Jl. Ciaruteun Ilir Rt 001 Rw 003 Desa Ciaruteun Ilir Cibungbulang Bogor</t>
-  </si>
-  <si>
     <t>Tempat Lahir</t>
   </si>
   <si>
     <t>Tanggal Lahir</t>
   </si>
   <si>
-    <t xml:space="preserve">      Yang bertanda tangan di bawah ini Kepala Desa Ciaruteun Ilir Kecamatan Cibungbulang Kabupaten Bogor, menerangkan dengan sebenarnya bahwa :</t>
-  </si>
-  <si>
     <t>Kewarganegaraan</t>
   </si>
   <si>
@@ -88,13 +79,25 @@
   </si>
   <si>
     <t xml:space="preserve">      Demikian Surat Keterangan ini dibuat dengan sebenarnya, kepada pihak yang berkepentingan agar mengetahui dan maklum adanya.</t>
+  </si>
+  <si>
+    <t>DESA CIMANGGU I</t>
+  </si>
+  <si>
+    <t>Jl. Gardu Seri Ciaruteun Rt.004 Rw.008 Desa Cimanggu Satu Kecamatan Cibungbulang 16630 Bogor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Yang bertanda tangan di bawah ini Kepala Desa Cimanggu Satu Kecamatan Cibungbulang Kabupaten Bogor, menerangkan dengan sebenarnya bahwa :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cimanggu, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +129,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -172,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -183,9 +194,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -193,12 +201,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -208,7 +210,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -216,14 +221,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,388 +605,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="1.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="1.26953125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="33" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="33" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="37" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="37" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G40:H40"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="C37:I37"/>
     <mergeCell ref="C1:I1"/>
